--- a/git명령어.xlsx
+++ b/git명령어.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\엑셀 등\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35E69B0-0BC9-4E9A-9CE4-DE75A7414CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD88ABCC-D5BC-4FC8-ABFB-26E8ACBE9250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="945" yWindow="2850" windowWidth="16140" windowHeight="15435" xr2:uid="{EAD1388B-A671-4F07-BF44-532D9EAAEAA6}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="15435" xr2:uid="{EAD1388B-A671-4F07-BF44-532D9EAAEAA6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -297,10 +297,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$ checkout --&lt;파일명&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>작업트리에서 수정한 내용 되돌림. 되돌린 내용 복구 불가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -765,6 +761,10 @@
 병합하는 식으로 한다. 깃허브로 협업할 때는 다른 작업자의
 변경 내용을 바로 반영하기 위해 항상 pull부터 한 다음
 자신의 작업을 진행하는 것이 좋다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$ restore --&lt;파일명&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -885,16 +885,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -902,6 +893,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1220,10 +1220,10 @@
   <dimension ref="A2:H93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="D81" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="E24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D93" sqref="D93"/>
+      <selection pane="bottomRight" activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1238,10 +1238,10 @@
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>13</v>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>2</v>
@@ -1263,7 +1263,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>3</v>
@@ -1271,7 +1271,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>4</v>
@@ -1282,12 +1282,12 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B6" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -1296,11 +1296,11 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="3" t="s">
@@ -1309,11 +1309,11 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -1322,22 +1322,22 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B10" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -1346,27 +1346,27 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
+        <v>112</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
       <c r="D11" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
+        <v>112</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
       <c r="D12" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>20</v>
@@ -1375,12 +1375,12 @@
         <v>21</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>22</v>
@@ -1388,8 +1388,8 @@
       <c r="C14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>108</v>
+      <c r="D14" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>24</v>
@@ -1397,22 +1397,22 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B15" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="4"/>
+      <c r="C15" s="7"/>
       <c r="E15" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
+        <v>112</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
       <c r="D16" s="3" t="s">
         <v>27</v>
       </c>
@@ -1422,10 +1422,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
+        <v>112</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
       <c r="D17" s="3" t="s">
         <v>28</v>
       </c>
@@ -1435,71 +1435,71 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
+        <v>112</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
       <c r="D18" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
+        <v>112</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
       <c r="D19" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
+        <v>112</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
       <c r="D20" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
+        <v>112</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
       <c r="D21" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
+        <v>112</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
       <c r="D22" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>37</v>
@@ -1507,7 +1507,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>38</v>
@@ -1515,7 +1515,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>39</v>
@@ -1529,7 +1529,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>40</v>
@@ -1540,37 +1540,37 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B30" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B30" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="4" t="s">
         <v>46</v>
       </c>
       <c r="E30" s="3" t="s">
@@ -1579,21 +1579,21 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="4" t="s">
         <v>47</v>
       </c>
       <c r="E32" s="3" t="s">
@@ -1602,11 +1602,11 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="4" t="s">
         <v>62</v>
       </c>
       <c r="E33" s="3" t="s">
@@ -1615,95 +1615,95 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B34" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B34" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="4"/>
+      <c r="C34" s="7"/>
       <c r="E34" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="6" t="s">
-        <v>128</v>
+        <v>117</v>
+      </c>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="4" t="s">
+        <v>127</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B38" s="8"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B39" s="7"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B39" s="9"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>54</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -1714,7 +1714,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>56</v>
@@ -1733,7 +1733,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>63</v>
@@ -1744,499 +1744,499 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="B45" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B47" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E47" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B48" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C48" s="7"/>
+      <c r="E48" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="C48" s="4"/>
-      <c r="E48" s="3" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="6" t="s">
-        <v>73</v>
+        <v>121</v>
+      </c>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="6" t="s">
-        <v>74</v>
+        <v>121</v>
+      </c>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="6" t="s">
-        <v>75</v>
+        <v>121</v>
+      </c>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B54" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E55" s="3" t="s">
         <v>123</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D58" s="6" t="s">
+      <c r="D58" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E58" s="3" t="s">
         <v>170</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B59" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E59" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C60" s="4"/>
+        <v>122</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C60" s="7"/>
       <c r="H60" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="6" t="s">
-        <v>90</v>
+        <v>122</v>
+      </c>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B62" s="7"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="6" t="s">
-        <v>91</v>
+        <v>122</v>
+      </c>
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E65" s="6" t="s">
         <v>143</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E65" s="9" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B67" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D67" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D67" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="E67" s="9" t="s">
-        <v>146</v>
+      <c r="E67" s="6" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B72" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B73" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B74" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E74" s="3" t="s">
         <v>137</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B75" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E75" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B76" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E76" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B77" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E77" s="6" t="s">
         <v>150</v>
-      </c>
-      <c r="E77" s="9" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B78" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E78" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B79" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E79" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B80" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C80" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="E80" s="6" t="s">
         <v>157</v>
-      </c>
-      <c r="E80" s="9" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E81" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E87" s="6" t="s">
         <v>167</v>
-      </c>
-      <c r="E87" s="9" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B91" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E91" s="6" t="s">
         <v>174</v>
-      </c>
-      <c r="E91" s="9" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E92" s="6" t="s">
         <v>176</v>
-      </c>
-      <c r="E92" s="9" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="99" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E93" s="9" t="s">
-        <v>178</v>
+        <v>175</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
